--- a/Controller/employee_info.xlsx
+++ b/Controller/employee_info.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/905aac6c8ce5e34d/Documents/PythonCoding/Scheduling_App/Controller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{856322BD-04C1-4F80-BB49-7507AF763521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{856322BD-04C1-4F80-BB49-7507AF763521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6664834-5109-400D-B5F9-9678EC621738}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{2904E116-4984-4D6B-8A65-7D0DB82F65D6}"/>
+    <workbookView minimized="1" xWindow="3840" yWindow="3840" windowWidth="23040" windowHeight="12120" activeTab="1" xr2:uid="{2904E116-4984-4D6B-8A65-7D0DB82F65D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -78,6 +79,39 @@
   </si>
   <si>
     <t>Charlotte Stewart</t>
+  </si>
+  <si>
+    <t>DOW</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -142,12 +176,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -467,7 +504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3224D3CA-A852-4119-ABDB-0DC010D16281}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -637,4 +674,1020 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDECF160-0F55-44ED-B8FA-1F3BEFE17A45}">
+  <dimension ref="A1:E71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.67708333333333337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.67708333333333337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.67708333333333337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.67708333333333337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.67708333333333337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.67708333333333337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.67708333333333337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.67708333333333337</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.67708333333333337</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.67708333333333337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.67708333333333337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.63541666666666663</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.63541666666666663</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.63541666666666663</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.63541666666666663</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.63541666666666663</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.63541666666666663</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.63541666666666663</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>6</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>6</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>6</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>6</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>6</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>7</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>7</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>7</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>7</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>7</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>7</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>7</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>8</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>8</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>8</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>8</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>8</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>8</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>8</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>9</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>9</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>9</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>9</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>9</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>9</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>9</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>10</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0.67708333333333337</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>10</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0.67708333333333337</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>10</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0.67708333333333337</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>10</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0.67708333333333337</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>10</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0.67708333333333337</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>10</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0.67708333333333337</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>10</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0.67708333333333337</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Controller/employee_info.xlsx
+++ b/Controller/employee_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/905aac6c8ce5e34d/Documents/PythonCoding/Scheduling_App/Controller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{856322BD-04C1-4F80-BB49-7507AF763521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6664834-5109-400D-B5F9-9678EC621738}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{856322BD-04C1-4F80-BB49-7507AF763521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FB514A8-9E09-41C4-84F2-4BFA8B23A456}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3840" yWindow="3840" windowWidth="23040" windowHeight="12120" activeTab="1" xr2:uid="{2904E116-4984-4D6B-8A65-7D0DB82F65D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{2904E116-4984-4D6B-8A65-7D0DB82F65D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -118,6 +118,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="h:mm:ss;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -176,7 +179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -184,7 +187,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -203,6 +209,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -681,14 +691,14 @@
   <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="31" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="1"/>
   </cols>
@@ -700,7 +710,7 @@
       <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -742,10 +752,10 @@
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -784,11 +794,11 @@
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="3">
-        <v>0.34375</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.97916666666666663</v>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1036,11 +1046,11 @@
       <c r="B25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="3">
-        <v>0.34375</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0.67708333333333337</v>
+      <c r="C25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1050,11 +1060,11 @@
       <c r="B26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="3">
-        <v>0.34375</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0.67708333333333337</v>
+      <c r="C26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1204,11 +1214,11 @@
       <c r="B37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="3">
-        <v>0.34375</v>
-      </c>
-      <c r="D37" s="3">
-        <v>0.89583333333333337</v>
+      <c r="C37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1232,11 +1242,11 @@
       <c r="B39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="3">
-        <v>0.34375</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0.89583333333333337</v>
+      <c r="C39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1288,11 +1298,11 @@
       <c r="B43" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="3">
-        <v>0.34375</v>
-      </c>
-      <c r="D43" s="3">
-        <v>0.89583333333333337</v>
+      <c r="C43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1302,11 +1312,11 @@
       <c r="B44" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="3">
-        <v>0.34375</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0.97916666666666663</v>
+      <c r="C44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1316,11 +1326,11 @@
       <c r="B45" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="3">
-        <v>0.34375</v>
-      </c>
-      <c r="D45" s="3">
-        <v>0.97916666666666663</v>
+      <c r="C45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1330,11 +1340,11 @@
       <c r="B46" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="3">
-        <v>0.34375</v>
-      </c>
-      <c r="D46" s="3">
-        <v>0.97916666666666663</v>
+      <c r="C46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1344,11 +1354,11 @@
       <c r="B47" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="3">
-        <v>0.34375</v>
-      </c>
-      <c r="D47" s="3">
-        <v>0.97916666666666663</v>
+      <c r="C47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1359,7 +1369,7 @@
         <v>21</v>
       </c>
       <c r="C48" s="3">
-        <v>0.34375</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="D48" s="3">
         <v>0.97916666666666663</v>
@@ -1373,7 +1383,7 @@
         <v>22</v>
       </c>
       <c r="C49" s="3">
-        <v>0.34375</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="D49" s="3">
         <v>0.97916666666666663</v>
@@ -1387,7 +1397,7 @@
         <v>23</v>
       </c>
       <c r="C50" s="3">
-        <v>0.34375</v>
+        <v>0.67708333333333304</v>
       </c>
       <c r="D50" s="3">
         <v>0.97916666666666663</v>
@@ -1401,7 +1411,7 @@
         <v>17</v>
       </c>
       <c r="C51" s="3">
-        <v>0.34375</v>
+        <v>0.67708333333333304</v>
       </c>
       <c r="D51" s="3">
         <v>0.97916666666666663</v>
@@ -1415,7 +1425,7 @@
         <v>18</v>
       </c>
       <c r="C52" s="3">
-        <v>0.34375</v>
+        <v>0.67708333333333304</v>
       </c>
       <c r="D52" s="3">
         <v>0.97916666666666663</v>
@@ -1429,7 +1439,7 @@
         <v>19</v>
       </c>
       <c r="C53" s="3">
-        <v>0.34375</v>
+        <v>0.67708333333333304</v>
       </c>
       <c r="D53" s="3">
         <v>0.97916666666666663</v>
@@ -1526,11 +1536,11 @@
       <c r="B60" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="3">
-        <v>0.34375</v>
+      <c r="C60" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="D60" s="3">
-        <v>0.97916666666666663</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1544,7 +1554,7 @@
         <v>0.34375</v>
       </c>
       <c r="D61" s="3">
-        <v>0.97916666666666663</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1652,11 +1662,11 @@
       <c r="B69" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C69" s="3">
-        <v>0.34375</v>
-      </c>
-      <c r="D69" s="3">
-        <v>0.67708333333333337</v>
+      <c r="C69" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1689,5 +1699,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>